--- a/example_data/Summary/before/Individual Values/Indv Raw Means_before_.xlsx
+++ b/example_data/Summary/before/Individual Values/Indv Raw Means_before_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,308 +438,1235 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002577254043429985</v>
+        <v>0.004396505784496767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002275779589247141</v>
+        <v>0.002790259751776172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0006594361621238884</v>
+        <v>0.001254162461872718</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001975538929352516</v>
+        <v>0.0009409823374473167</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.002577254043429985</v>
+        <v>0.004396505784496767</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002275779589247141</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0.002577254043429985</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.002275779589247141</v>
+        <v>0.002790259751776172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001077200507828885</v>
+        <v>0.00296468000291353</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002474871499029481</v>
+        <v>0.003347498075830604</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.002219333785075042</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.001281306670327745</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.0006594361621238884</v>
+        <v>0.00296468000291353</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001975538929352516</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0006594361621238884</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.001975538929352516</v>
+        <v>0.003347498075830604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002300029365433646</v>
+        <v>0.003410042844097892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005433883968993536</v>
+        <v>0.004665052065409943</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002516880968828757</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001073554771415305</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.001077200507828885</v>
+        <v>0.003410042844097892</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002474871499029481</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>0.001077200507828885</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.002474871499029481</v>
+        <v>0.004665052065409943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00560523474177158</v>
+        <v>0.005375245449310229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004446000583284386</v>
+        <v>0.005239731399555952</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0007200192913193841</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0009419121887272611</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.002300029365433646</v>
+        <v>0.005375245449310229</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005433883968993536</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0.002300029365433646</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.005433883968993536</v>
+        <v>0.005239731399555952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004438668202268872</v>
+        <v>0.006082433890589089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004170063996309317</v>
+        <v>0.003042700982431891</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0006206680683912411</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001097483752452466</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.00560523474177158</v>
+        <v>0.006082433890589089</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004446000583284386</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>0.00560523474177158</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.004446000583284386</v>
+        <v>0.003042700982431891</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007920719736243826</v>
+        <v>0.002370576586061651</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004815313749962018</v>
+        <v>0.003897163556532481</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001025564931733402</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001304794682988155</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.004438668202268872</v>
+        <v>0.002370576586061651</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004170063996309317</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>0.004438668202268872</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.004170063996309317</v>
+        <v>0.003897163556532481</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.00194443818901619</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.007352511379213255</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001365085834457903</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001319084126076997</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.007920719736243826</v>
+        <v>0.00194443818901619</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004815313749962018</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>0.007920719736243826</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.004815313749962018</v>
+        <v>0.007352511379213255</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.009899000465256973</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.006482696702625044</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.001397895164383185</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001262842318453416</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.009899000465256973</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.006482696702625044</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.00662589855657585</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00521266290269393</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0009819306982691372</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.000827819306018785</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00662589855657585</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00521266290269393</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.004799376100147503</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004154122091000348</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0009771806998277164</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.000748617280604117</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.004799376100147503</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.004154122091000348</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.008126797986952271</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01120370231049982</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0009924121292886464</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0008318992880377634</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.008126797986952271</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01120370231049982</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.002567542947614302</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.003601549267107882</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002193970285192774</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.002361019490666374</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.001254162461872718</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0009409823374473167</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.00111747408719151</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.002041057257958968</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.002130924933128917</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.002021950013985994</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0.002219333785075042</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001281306670327745</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.001615594873604076</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.001594220574807583</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001731236125565359</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.004639618987901649</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.002516880968828757</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.001073554771415305</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0021619929456553</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.00136860025064467</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.005396720870284774</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.006443288608368764</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0007200192913193841</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0009419121887272611</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0008668857611269011</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0003197198837153676</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0006206680683912411</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.001097483752452466</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0001723472760613694</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0006965023202554705</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0.001025564931733402</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.001304794682988155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0007622649143751764</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.001020917879218077</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0.001365085834457903</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.001319084126076997</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.00102313475735495</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0009232949416489887</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.001397895164383185</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.001262842318453416</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.001021117578922085</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0006412118278093612</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.002567542947614302</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.003601549267107882</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0006949602936004165</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.000931774355995149</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.00111747408719151</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.002041057257958968</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0008884216591509521</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.004807286054322232</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.001615594873604076</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.001594220574807583</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.003110752489037165</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.006391171877662285</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0021619929456553</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.00136860025064467</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.006462429125967315</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.009725002432572311</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0008668857611269011</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0003197198837153676</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.002370370634900519</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.00794293982983928</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0001723472760613694</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0006965023202554705</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.001291426871802691</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.001124864191779435</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0007622649143751764</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.001020917879218077</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.001230739132976067</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.001620353190586862</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.00102313475735495</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0009232949416489887</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.001920588414968915</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.001746374736398985</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0009819306982691372</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.000827819306018785</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.001677261736892222</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.001236354059051301</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0009771806998277164</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.000748617280604117</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.001963286772038917</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.002717970323751807</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.001021117578922085</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0006412118278093612</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0007738323449356187</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.00188838921148806</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0006949602936004165</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.000931774355995149</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.00182191238073928</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.001666501848404857</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0009924121292886464</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0008318992880377634</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.001895888697868353</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.003834707928800734</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0008884216591509521</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.004807286054322232</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.006957068785921953</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.006019415315080524</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.003110752489037165</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.006391171877662285</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.005225224452392637</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.003446196980242986</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.006462429125967315</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.009725002432572311</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0.002370370634900519</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.00794293982983928</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.001291426871802691</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.001124864191779435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0.001230739132976067</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.001620353190586862</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0.001920588414968915</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.001746374736398985</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0.001677261736892222</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.001236354059051301</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.001963286772038917</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.002717970323751807</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0007738323449356187</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.00188838921148806</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.00182191238073928</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.001666501848404857</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0.001895888697868353</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.003834707928800734</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0.002193970285192774</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.002361019490666374</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0.002130924933128917</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.002021950013985994</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0.001731236125565359</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.004639618987901649</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0.005396720870284774</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.006443288608368764</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0.005225224452392637</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.003446196980242986</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,308 +1691,1235 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4413861548646572</v>
+        <v>0.3694594059429881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3897549815773729</v>
+        <v>0.2344788704595897</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1129364769920776</v>
+        <v>0.2397409311037281</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3383351105938566</v>
+        <v>0.1798746084258716</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.4413861548646572</v>
+        <v>0.3694594059429881</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3897549815773729</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0.4413861548646572</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.3897549815773729</v>
+        <v>0.2344788704595897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1844837110182863</v>
+        <v>0.2491362382712894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4238518967602223</v>
+        <v>0.2813062716425456</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.424239414142065</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2449297148593547</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.1129364769920776</v>
+        <v>0.2491362382712894</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3383351105938566</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1129364769920776</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.3383351105938566</v>
+        <v>0.2813062716425456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1172433190367098</v>
+        <v>0.286562207620239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2769906338413449</v>
+        <v>0.3920266341641463</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4811174032774527</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2052166512029409</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.1844837110182863</v>
+        <v>0.286562207620239</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4238518967602223</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1844837110182863</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.4238518967602223</v>
+        <v>0.3920266341641463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2857251889830855</v>
+        <v>0.4517075804842188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2266335694045064</v>
+        <v>0.4403196868311063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1376361520626298</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1800523552636368</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.1172433190367098</v>
+        <v>0.4517075804842188</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2769906338413449</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1172433190367098</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.2769906338413449</v>
+        <v>0.4403196868311063</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2262598034432451</v>
+        <v>0.5111360071056437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2125677832076771</v>
+        <v>0.2556927142904023</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.118644549766129</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2097908243014135</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.2857251889830855</v>
+        <v>0.5111360071056437</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2266335694045064</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2857251889830855</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2266335694045064</v>
+        <v>0.2556927142904023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4037563541549442</v>
+        <v>0.199210887045141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2454591992316627</v>
+        <v>0.3274972905839041</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1960430957835907</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2494195941183581</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.2262598034432451</v>
+        <v>0.199210887045141</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2125677832076771</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>0.2262598034432451</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2125677832076771</v>
+        <v>0.3274972905839041</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.07446787315031393</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2815856465977555</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2609446215610469</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2521511097674212</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.4037563541549442</v>
+        <v>0.07446787315031393</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2454591992316627</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>0.4037563541549442</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2454591992316627</v>
+        <v>0.2815856465977555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3791107966947657</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2482735828014642</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2672163284126707</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2414001395091495</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3791107966947657</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2482735828014642</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.253757911156635</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1996339724275631</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2761750461904493</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2328301126343036</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.253757911156635</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1996339724275631</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1838059613544532</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1590940965215507</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2748390750865044</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2105539753612456</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1838059613544532</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1590940965215507</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4548508994720774</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.627062968899926</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2791230237830202</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.233977636817562</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4548508994720774</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.627062968899926</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3513249803169831</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4928113185226444</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1548375678079191</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1666269219547576</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2397409311037281</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1798746084258716</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.152907495491784</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2792842868099081</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1503881962548747</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1426973849681246</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0.424239414142065</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2449297148593547</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2210669300377505</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2181422174790201</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.122180502075575</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3274371236887603</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4811174032774527</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2052166512029409</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2958322974825294</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1872698786076105</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3808689385324603</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4547295574318281</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1376361520626298</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1800523552636368</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2438178331149845</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.08992350866384154</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.118644549766129</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2097908243014135</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.04847390657095096</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1958962692656205</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1960430957835907</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2494195941183581</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.2143924701692362</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2871404702457195</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2609446215610469</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2521511097674212</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2877639831096404</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2596833194102128</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2672163284126707</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2414001395091495</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.28719663721868</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1803454220091764</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3513249803169831</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4928113185226444</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1954625632174878</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2620682154653485</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.152907495491784</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2792842868099081</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.02146323903618383</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1161384671754155</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2210669300377505</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2181422174790201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.07515217978635984</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.154403315496267</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2958322974825294</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1872698786076105</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1561248081430054</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2349448031661543</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.2438178331149845</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.08992350866384154</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.05726541109977183</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1918922332226698</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.04847390657095096</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1958962692656205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.209029925893898</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1820701456522572</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2143924701692362</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2871404702457195</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1992070285804096</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.26226983094871</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2877639831096404</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2596833194102128</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3108658049628752</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2826676366296244</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2761750461904493</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2328301126343036</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2714810294119523</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2001158586559117</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0.2748390750865044</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.2105539753612456</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3177769469013073</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.439929776714803</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.28719663721868</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1803454220091764</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1252522471445887</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3056540525482376</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1954625632174878</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.2620682154653485</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.2948941347329285</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2697394374238585</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2791230237830202</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.233977636817562</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1338007158955963</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.270631217276071</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0.02146323903618383</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.1161384671754155</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4909891520203057</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.4248150639519325</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.07515217978635984</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.154403315496267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3687657261902496</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.2432123908920374</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.1561248081430054</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.2349448031661543</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0.05726541109977183</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1918922332226698</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.209029925893898</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1820701456522572</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0.1992070285804096</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.26226983094871</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0.3108658049628752</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.2826676366296244</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0.2714810294119523</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.2001158586559117</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.3177769469013073</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.439929776714803</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0.1252522471445887</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.3056540525482376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.2948941347329285</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.2697394374238585</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0.1338007158955963</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.270631217276071</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0.1548375678079191</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1666269219547576</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0.1503881962548747</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.1426973849681246</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0.122180502075575</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.3274371236887603</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0.3808689385324603</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.4547295574318281</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0.3687657261902496</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.2432123908920374</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +2933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,329 +2944,1379 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4237420448185144</v>
+        <v>0.6129256468671298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09352580549313221</v>
+        <v>-0.3475624962905048</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1.676915572067909</v>
+        <v>-0.1554946009720588</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2353390128269048</v>
+        <v>-0.5423453683382324</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.4237420448185144</v>
+        <v>0.6129256468671298</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09352580549313221</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0.4237420448185144</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.09352580549313221</v>
+        <v>-0.3475624962905048</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.219322667432401</v>
+        <v>-0.2432642880887039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3115986166924481</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>-0.01435027832114535</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1.036717924346042</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.121965149223993</v>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-1.676915572067909</v>
+        <v>-0.2432642880887039</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2353390128269048</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>-1.676915572067909</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.2353390128269048</v>
+        <v>-0.01435027832114535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.211565734187342</v>
+        <v>0.02304966360152617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07617789631493901</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+        <v>0.7735084675881276</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.404258350399441</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.3785873779286789</v>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-1.219322667432401</v>
+        <v>0.02304966360152617</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3115986166924481</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>-1.219322667432401</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.3115986166924481</v>
+        <v>0.7735084675881276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1465882676116532</v>
+        <v>1.198183337246702</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3297568704674458</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+        <v>1.117149899424106</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.8152864565091046</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.541196784334561</v>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-1.211565734187342</v>
+        <v>1.198183337246702</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07617789631493901</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>-1.211565734187342</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.07617789631493901</v>
+        <v>1.117149899424106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3327698459061965</v>
+        <v>1.621061339115441</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4431429803067603</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+        <v>-0.1966100245335727</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.938008474386311</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.3490294847082829</v>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.1465882676116532</v>
+        <v>1.621061339115441</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3297568704674458</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1465882676116532</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-0.3297568704674458</v>
+        <v>-0.1966100245335727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.098052655834431</v>
+        <v>-0.5985207532076608</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1780010495338538</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+        <v>0.3143336008371296</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4378660640866371</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.09295195517709441</v>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-0.3327698459061965</v>
+        <v>-0.5985207532076608</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4431429803067603</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>-0.3327698459061965</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-0.4431429803067603</v>
+        <v>0.3143336008371296</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.8007054302321706</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5633694069057398</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.01847826929343652</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.07530114788433889</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.098052655834431</v>
+        <v>-0.8007054302321706</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1780010495338538</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>1.098052655834431</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-0.1780010495338538</v>
+        <v>0.5633694069057398</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.20566871816783</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3439766081067287</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02204893364337826</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1447729461894254</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1.20566871816783</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3439766081067287</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3800963200144508</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02363679614912709</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3547000132789105</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.002067858661329005</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3800963200144508</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.02363679614912709</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.0806062693657132</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2433582748369846</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3437037669215208</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1854205469210329</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.0806062693657132</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.2433582748369846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.2289970736448325</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7178438038816989</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3789645260129467</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.007377299682973155</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.2289970736448325</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7178438038816989</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7040221726807917</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.637171193547004</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.5140484787703165</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.4255422064530348</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.1554946009720588</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.5423453683382324</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.6046065192162074</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2288900612614292</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.5474512661842583</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.6051885289391029</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1.036717924346042</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.121965149223993</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.155072589538053</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.1743620325691347</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.759215017733381</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7817089566552921</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1.404258350399441</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.3785873779286789</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3380296442930739</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.3779752800038825</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1.182837864656694</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.73733202679733</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.8152864565091046</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.541196784334561</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.08837098463021638</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1.178318017603364</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.938008474386311</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.3490294847082829</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.519485603251988</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.3060666797496337</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.4378660640866371</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.09295195517709441</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.1538262748401547</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4449553368925375</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.01847826929343652</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.07530114788433889</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.450087409763298</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2189582371291438</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.02204893364337826</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.1447729461894254</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4454176417058662</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.4340641693607964</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7040221726807917</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.637171193547004</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.3096364714448843</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2385880812789181</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.6046065192162074</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2288900612614292</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.56140136032321</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.8614179839352494</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.155072589538053</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.1743620325691347</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.164450998970679</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.5785059883579848</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3380296442930739</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.3779752800038825</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.5657780947053928</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01697926778068218</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.08837098463021638</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-1.178318017603364</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.296697215684258</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3013308526544157</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.519485603251988</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.3060666797496337</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.3852879246812453</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5552510661359265</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.1538262748401547</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.4449553368925375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.4472146344178679</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.04964640858726675</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.450087409763298</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2189582371291438</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2567182698881276</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.07894793087828898</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.3547000132789105</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.002067858661329005</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.008423954499636009</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.4414850767843739</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3437037669215208</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.1854205469210329</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3002883355328332</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.070379133996151</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.4454176417058662</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4340641693607964</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.9134494058353323</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2238617033680615</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.3096364714448843</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.2385880812789181</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1560277144670887</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.002555602558159364</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3789645260129467</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.007377299682973155</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.6719785333653501</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3552497155831433</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>-1.56140136032321</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.8614179839352494</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2.009543847121912</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.512754813051045</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>-1.164450998970679</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.5785059883579848</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.091975363273541</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1494082348421199</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.5657780947053928</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.01697926778068218</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>-1.296697215684258</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.3013308526544157</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.3852879246812453</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.5552510661359265</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.4472146344178679</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.04964640858726675</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0.2567182698881276</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.07894793087828898</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0.008423954499636009</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.4414850767843739</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.3002883355328332</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.070379133996151</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.9134494058353323</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.2238617033680615</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.1560277144670887</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.002555602558159364</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.6719785333653501</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.3552497155831433</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.5140484787703165</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.4255422064530348</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.5474512661842583</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.6051885289391029</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.759215017733381</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7817089566552921</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1.182837864656694</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.73733202679733</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1.091975363273541</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1494082348421199</v>
       </c>
     </row>
   </sheetData>
